--- a/data/SourceFiles/kaufmann_1991.xlsx
+++ b/data/SourceFiles/kaufmann_1991.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Research\Data\To Scrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Research\Data\To Scrape\Scraped!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA247E5B-0990-4114-AF3E-0672C1A66D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0841B6C-0FF6-41BF-88F1-3BC350F62DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A8A7740C-0898-4448-97A5-0E4FE4EB0C5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8A7740C-0898-4448-97A5-0E4FE4EB0C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1367,9 +1367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B767F6-DE60-49AF-BB24-64F4CFD9E511}">
   <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G114:H115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3664,8 +3664,7 @@
         <v>0.9</v>
       </c>
       <c r="O50">
-        <f>--27.74</f>
-        <v>27.74</v>
+        <v>-27.74</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -7579,8 +7578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4CA0-204F-448A-A94F-DB36FFA94AE0}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
